--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H2">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I2">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J2">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>327.197335831785</v>
+        <v>372.3597774948363</v>
       </c>
       <c r="R2">
-        <v>327.197335831785</v>
+        <v>1489.439109979345</v>
       </c>
       <c r="S2">
-        <v>0.005434270963015353</v>
+        <v>0.005554256228099308</v>
       </c>
       <c r="T2">
-        <v>0.005434270963015353</v>
+        <v>0.002995706077547542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H3">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I3">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J3">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>221.4250052878133</v>
+        <v>268.70696429738</v>
       </c>
       <c r="R3">
-        <v>221.4250052878133</v>
+        <v>1612.24178578428</v>
       </c>
       <c r="S3">
-        <v>0.003677546681919509</v>
+        <v>0.004008132511044585</v>
       </c>
       <c r="T3">
-        <v>0.003677546681919509</v>
+        <v>0.003242698868178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H4">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I4">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J4">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>167.0492984422262</v>
+        <v>191.2554546815325</v>
       </c>
       <c r="R4">
-        <v>167.0492984422262</v>
+        <v>1147.532728089195</v>
       </c>
       <c r="S4">
-        <v>0.002774445426363066</v>
+        <v>0.002852837133671341</v>
       </c>
       <c r="T4">
-        <v>0.002774445426363066</v>
+        <v>0.002308030415401932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H5">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I5">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J5">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>157.0679840544118</v>
+        <v>180.1775668241208</v>
       </c>
       <c r="R5">
-        <v>157.0679840544118</v>
+        <v>1081.065400944725</v>
       </c>
       <c r="S5">
-        <v>0.002608670338945138</v>
+        <v>0.002687595259159082</v>
       </c>
       <c r="T5">
-        <v>0.002608670338945138</v>
+        <v>0.002174344805462638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H6">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I6">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J6">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>230.7763117734227</v>
+        <v>275.42429404889</v>
       </c>
       <c r="R6">
-        <v>230.7763117734227</v>
+        <v>1652.54576429334</v>
       </c>
       <c r="S6">
-        <v>0.003832858256116222</v>
+        <v>0.004108330687280306</v>
       </c>
       <c r="T6">
-        <v>0.003832858256116222</v>
+        <v>0.003323762184267914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H7">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I7">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J7">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>277.4765881163363</v>
+        <v>316.5455963672013</v>
       </c>
       <c r="R7">
-        <v>277.4765881163363</v>
+        <v>1266.182385468805</v>
       </c>
       <c r="S7">
-        <v>0.004608481795500905</v>
+        <v>0.004721711249073671</v>
       </c>
       <c r="T7">
-        <v>0.004608481795500905</v>
+        <v>0.002546670247892944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J8">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>12405.01667331339</v>
+        <v>13434.496133387</v>
       </c>
       <c r="R8">
-        <v>12405.01667331339</v>
+        <v>80606.97680032201</v>
       </c>
       <c r="S8">
-        <v>0.2060292506115192</v>
+        <v>0.2003939155895419</v>
       </c>
       <c r="T8">
-        <v>0.2060292506115192</v>
+        <v>0.1621246606696174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J9">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>8394.875451846505</v>
+        <v>9694.770732634708</v>
       </c>
       <c r="R9">
-        <v>8394.875451846505</v>
+        <v>87252.93659371238</v>
       </c>
       <c r="S9">
-        <v>0.1394266484173132</v>
+        <v>0.1446107876742352</v>
       </c>
       <c r="T9">
-        <v>0.1394266484173132</v>
+        <v>0.175491667088881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J10">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>6333.331923908093</v>
+        <v>6900.371150973344</v>
       </c>
       <c r="R10">
-        <v>6333.331923908093</v>
+        <v>62103.3403587601</v>
       </c>
       <c r="S10">
-        <v>0.1051874144565957</v>
+        <v>0.1029284894822508</v>
       </c>
       <c r="T10">
-        <v>0.1051874144565957</v>
+        <v>0.1249083315338222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J11">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>5954.910837172603</v>
+        <v>6500.688235198275</v>
       </c>
       <c r="R11">
-        <v>5954.910837172603</v>
+        <v>58506.19411678448</v>
       </c>
       <c r="S11">
-        <v>0.09890239163325397</v>
+        <v>0.09696667121298468</v>
       </c>
       <c r="T11">
-        <v>0.09890239163325397</v>
+        <v>0.1176733980701353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J12">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>8749.411079639292</v>
+        <v>9937.127576815059</v>
       </c>
       <c r="R12">
-        <v>8749.411079639292</v>
+        <v>89434.14819133554</v>
       </c>
       <c r="S12">
-        <v>0.1453149685730105</v>
+        <v>0.1482258720430883</v>
       </c>
       <c r="T12">
-        <v>0.1453149685730105</v>
+        <v>0.1798787338683397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J13">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>10519.95638438474</v>
+        <v>11420.75714795705</v>
       </c>
       <c r="R13">
-        <v>10519.95638438474</v>
+        <v>68524.5428877423</v>
       </c>
       <c r="S13">
-        <v>0.1747211460830496</v>
+        <v>0.1703562397244418</v>
       </c>
       <c r="T13">
-        <v>0.1747211460830496</v>
+        <v>0.1378232840903604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H14">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I14">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J14">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>18.23124448717353</v>
+        <v>19.02310268346383</v>
       </c>
       <c r="R14">
-        <v>18.23124448717353</v>
+        <v>114.138616100783</v>
       </c>
       <c r="S14">
-        <v>0.0003027944047417776</v>
+        <v>0.0002837556388830609</v>
       </c>
       <c r="T14">
-        <v>0.0003027944047417776</v>
+        <v>0.0002295667836604096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H15">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I15">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J15">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>12.33767199452747</v>
+        <v>13.72769155675467</v>
       </c>
       <c r="R15">
-        <v>12.33767199452747</v>
+        <v>123.549224010792</v>
       </c>
       <c r="S15">
-        <v>0.00020491075363015</v>
+        <v>0.0002047673270177208</v>
       </c>
       <c r="T15">
-        <v>0.00020491075363015</v>
+        <v>0.0002484943216312783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H16">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I16">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J16">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>9.307889361534317</v>
+        <v>9.770851668397</v>
       </c>
       <c r="R16">
-        <v>9.307889361534317</v>
+        <v>87.937665015573</v>
       </c>
       <c r="S16">
-        <v>0.0001545904790323534</v>
+        <v>0.0001457456390648454</v>
       </c>
       <c r="T16">
-        <v>0.0001545904790323534</v>
+        <v>0.0001768688600745452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H17">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I17">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J17">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>8.751736352387747</v>
+        <v>9.204904939012776</v>
       </c>
       <c r="R17">
-        <v>8.751736352387747</v>
+        <v>82.844144451115</v>
       </c>
       <c r="S17">
-        <v>0.0001453535879650233</v>
+        <v>0.0001373037682279816</v>
       </c>
       <c r="T17">
-        <v>0.0001453535879650233</v>
+        <v>0.0001666242717534611</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H18">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I18">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J18">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>12.85872133125339</v>
+        <v>14.07086625323066</v>
       </c>
       <c r="R18">
-        <v>12.85872133125339</v>
+        <v>126.637796279076</v>
       </c>
       <c r="S18">
-        <v>0.0002135646238509142</v>
+        <v>0.0002098862477777761</v>
       </c>
       <c r="T18">
-        <v>0.0002135646238509142</v>
+        <v>0.0002547063612192353</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H19">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I19">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J19">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>15.46083345866978</v>
+        <v>16.17166984093783</v>
       </c>
       <c r="R19">
-        <v>15.46083345866978</v>
+        <v>97.030019045627</v>
       </c>
       <c r="S19">
-        <v>0.0002567819145436441</v>
+        <v>0.0002412226114675888</v>
       </c>
       <c r="T19">
-        <v>0.0002567819145436441</v>
+        <v>0.0001951562946158769</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H20">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I20">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J20">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>270.4976446769795</v>
+        <v>315.8383197483941</v>
       </c>
       <c r="R20">
-        <v>270.4976446769795</v>
+        <v>1895.029918490365</v>
       </c>
       <c r="S20">
-        <v>0.004492571714544376</v>
+        <v>0.004711161249308852</v>
       </c>
       <c r="T20">
-        <v>0.004492571714544376</v>
+        <v>0.003811470107049045</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H21">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I21">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J21">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>183.0544929428574</v>
+        <v>227.9192362809733</v>
       </c>
       <c r="R21">
-        <v>183.0544929428574</v>
+        <v>2051.27312652876</v>
       </c>
       <c r="S21">
-        <v>0.003040268384582102</v>
+        <v>0.003399727666973345</v>
       </c>
       <c r="T21">
-        <v>0.003040268384582102</v>
+        <v>0.004125721777197974</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H22">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I22">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J22">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>138.1014966356412</v>
+        <v>162.224292472535</v>
       </c>
       <c r="R22">
-        <v>138.1014966356412</v>
+        <v>1460.018632252815</v>
       </c>
       <c r="S22">
-        <v>0.002293664620490236</v>
+        <v>0.002419797575550642</v>
       </c>
       <c r="T22">
-        <v>0.002293664620490236</v>
+        <v>0.002936532726089797</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H23">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I23">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J23">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>129.8498339935215</v>
+        <v>152.8279459853138</v>
       </c>
       <c r="R23">
-        <v>129.8498339935215</v>
+        <v>1375.451513867825</v>
       </c>
       <c r="S23">
-        <v>0.002156616528155757</v>
+        <v>0.002279638194349081</v>
       </c>
       <c r="T23">
-        <v>0.002156616528155757</v>
+        <v>0.002766443040107192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H24">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I24">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J24">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>190.7853211067834</v>
+        <v>233.6169251027533</v>
       </c>
       <c r="R24">
-        <v>190.7853211067834</v>
+        <v>2102.55232592478</v>
       </c>
       <c r="S24">
-        <v>0.003168666175182949</v>
+        <v>0.003484716501796092</v>
       </c>
       <c r="T24">
-        <v>0.003168666175182949</v>
+        <v>0.004228859534393406</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H25">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I25">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J25">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>229.3929544006454</v>
+        <v>268.4963181388641</v>
       </c>
       <c r="R25">
-        <v>229.3929544006454</v>
+        <v>1610.977908833185</v>
       </c>
       <c r="S25">
-        <v>0.003809882705953974</v>
+        <v>0.004004990434997239</v>
       </c>
       <c r="T25">
-        <v>0.003809882705953974</v>
+        <v>0.003240156834845922</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H26">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I26">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J26">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>1244.553908565959</v>
+        <v>1416.79634855335</v>
       </c>
       <c r="R26">
-        <v>1244.553908565959</v>
+        <v>5667.1853942134</v>
       </c>
       <c r="S26">
-        <v>0.02067022688321734</v>
+        <v>0.02113345860243976</v>
       </c>
       <c r="T26">
-        <v>0.02067022688321734</v>
+        <v>0.01139839931306032</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H27">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I27">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J27">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>842.2298277112556</v>
+        <v>1022.4064704536</v>
       </c>
       <c r="R27">
-        <v>842.2298277112556</v>
+        <v>6134.4388227216</v>
       </c>
       <c r="S27">
-        <v>0.01398821015850119</v>
+        <v>0.01525059324175982</v>
       </c>
       <c r="T27">
-        <v>0.01398821015850119</v>
+        <v>0.0123381852540622</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H28">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I28">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J28">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>635.4020480361069</v>
+        <v>727.7102582259001</v>
       </c>
       <c r="R28">
-        <v>635.4020480361069</v>
+        <v>4366.2615493554</v>
       </c>
       <c r="S28">
-        <v>0.01055310212323456</v>
+        <v>0.01085479549159687</v>
       </c>
       <c r="T28">
-        <v>0.01055310212323456</v>
+        <v>0.008781853633309997</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H29">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I29">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J29">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>597.4363237663758</v>
+        <v>685.5598649378334</v>
       </c>
       <c r="R29">
-        <v>597.4363237663758</v>
+        <v>4113.359189627</v>
       </c>
       <c r="S29">
-        <v>0.009922546765977877</v>
+        <v>0.01022606462809664</v>
       </c>
       <c r="T29">
-        <v>0.009922546765977877</v>
+        <v>0.008273191593359274</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H30">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I30">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J30">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>877.7992036270998</v>
+        <v>1047.9653219708</v>
       </c>
       <c r="R30">
-        <v>877.7992036270998</v>
+        <v>6287.7919318248</v>
       </c>
       <c r="S30">
-        <v>0.01457896566150878</v>
+        <v>0.01563183852871738</v>
       </c>
       <c r="T30">
-        <v>0.01457896566150878</v>
+        <v>0.01264662407366433</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H31">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I31">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J31">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>1055.432103069667</v>
+        <v>1204.42827660115</v>
       </c>
       <c r="R31">
-        <v>1055.432103069667</v>
+        <v>4817.713106404601</v>
       </c>
       <c r="S31">
-        <v>0.01752918927828432</v>
+        <v>0.01796569785710441</v>
       </c>
       <c r="T31">
-        <v>0.01752918927828432</v>
+        <v>0.009689857299998557</v>
       </c>
     </row>
   </sheetData>
